--- a/5 Fundamentals of Computer Graphics/进度.xlsx
+++ b/5 Fundamentals of Computer Graphics/进度.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -116,8 +116,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +135,12 @@
     <font>
       <sz val="13.2"/>
       <color rgb="FF121212"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.2"/>
+      <color rgb="FF00B050"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -159,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -167,6 +173,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -451,7 +460,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -471,7 +480,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3">
@@ -480,7 +489,7 @@
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3">
@@ -489,7 +498,7 @@
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3">
@@ -498,7 +507,7 @@
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3">
@@ -507,7 +516,7 @@
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3">
@@ -516,7 +525,7 @@
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3">
@@ -525,7 +534,7 @@
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="3">
@@ -534,7 +543,7 @@
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="3">
@@ -552,7 +561,7 @@
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="3">

--- a/5 Fundamentals of Computer Graphics/进度.xlsx
+++ b/5 Fundamentals of Computer Graphics/进度.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>章节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,10 @@
   </si>
   <si>
     <t>Sampling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2--3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -145,12 +149,30 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -165,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -176,6 +198,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -237,7 +271,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -272,7 +306,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -449,7 +483,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -457,18 +491,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,7 +513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -488,7 +522,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -497,7 +531,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -506,7 +540,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -515,7 +549,7 @@
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -524,7 +558,7 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -533,7 +567,7 @@
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -542,7 +576,7 @@
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -551,167 +585,230 @@
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="6">
         <v>50</v>
       </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="8">
         <v>10</v>
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="7">
         <v>38</v>
       </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="7">
         <v>42</v>
       </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="C13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="6">
         <v>14</v>
       </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="C14" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="6">
         <v>22</v>
       </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="C15" s="3">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="7">
         <v>46</v>
       </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="C16" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="7">
         <v>32</v>
       </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="C17" s="3">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="6">
         <v>42</v>
       </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="C18" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="6">
         <v>14</v>
       </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="C19" s="3">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="7">
         <v>22</v>
       </c>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="C20" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="7">
         <v>44</v>
       </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="C21" s="3">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="6">
         <v>26</v>
       </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="C22" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="6">
         <v>28</v>
       </c>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="C23" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="6">
         <v>14</v>
       </c>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="C24" s="3">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="7">
         <v>16</v>
       </c>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="C25" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="7">
         <v>22</v>
       </c>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="C26" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="7">
         <v>36</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="3">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>508</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
